--- a/Data Files/Data Input.xlsx
+++ b/Data Files/Data Input.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOTO\hitungProperti\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F81DF8-598D-4BC6-A8B2-86A0CA4C6BC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1263E6-68B0-4AC2-9F0E-E25AD9FCBA90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D4C3BAD5-5568-4699-B1C7-024F7826BA8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D4C3BAD5-5568-4699-B1C7-024F7826BA8F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="TC_Input Data" sheetId="2" r:id="rId1"/>
+    <sheet name="DDT_Input Data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,51 +26,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Pengeluaran</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>TC ID</t>
+  </si>
+  <si>
+    <t>Jangka Waktu</t>
+  </si>
+  <si>
+    <t>TC1_Positive_Rekomendasi Harga</t>
+  </si>
+  <si>
+    <t>TC1_Negative_Rekomendasi Harga</t>
+  </si>
+  <si>
+    <t>TC2_Negative_Rekomendasi Harga</t>
+  </si>
+  <si>
+    <t>TC3_Negative_Rekomendasi Harga</t>
+  </si>
+  <si>
     <t>Penghasilan</t>
   </si>
   <si>
-    <t>JangkaWaktu</t>
-  </si>
-  <si>
-    <t>TestDesc</t>
-  </si>
-  <si>
-    <t>Valid Data</t>
-  </si>
-  <si>
-    <t>Invalid Pengeluaran</t>
-  </si>
-  <si>
-    <t>Invalid Penghasilan</t>
-  </si>
-  <si>
-    <t>testType</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>ExpectedWarningData</t>
-  </si>
-  <si>
-    <t>pengeluaran is required</t>
-  </si>
-  <si>
-    <t>Penghasilan is required</t>
-  </si>
-  <si>
-    <t>Bulan</t>
-  </si>
-  <si>
-    <t>Perhitungan</t>
+    <t>TC2_Positive_Rekomendasi Harga</t>
+  </si>
+  <si>
+    <t>TC3_Positive_Rekomendasi Harga</t>
   </si>
 </sst>
 </file>
@@ -78,7 +67,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="&quot;Rp&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;Rp&quot;#,##0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -104,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -112,15 +101,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -435,17 +457,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFFEB8C-491F-43D9-B7A3-717D871937B7}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E0F967-3E6C-4E24-834D-9EEA7D9A280A}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5">
+        <v>5000000</v>
+      </c>
+      <c r="C2" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="D2" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>5000000</v>
+      </c>
+      <c r="D3" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5">
+        <v>10000000</v>
+      </c>
+      <c r="C4" s="5">
+        <v>10000000</v>
+      </c>
+      <c r="D4" s="5">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFFEB8C-491F-43D9-B7A3-717D871937B7}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -455,185 +554,74 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5">
+        <v>27000000</v>
+      </c>
+      <c r="D2" s="5">
+        <v>10000000</v>
+      </c>
+      <c r="E2" s="5">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10000000</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5000000</v>
+      </c>
+      <c r="E3" s="5">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>10000000</v>
-      </c>
-      <c r="C2">
+      <c r="C4" s="5">
+        <v>50000000</v>
+      </c>
+      <c r="D4" s="5">
         <v>2000000</v>
       </c>
-      <c r="D2">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <f>12*D2</f>
-        <v>180</v>
-      </c>
-      <c r="H2" s="1">
-        <f xml:space="preserve"> (B2-C2) *G2/3</f>
-        <v>480000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>12000000</v>
-      </c>
-      <c r="C3">
-        <v>1500000</v>
-      </c>
-      <c r="D3">
+      <c r="E4" s="5">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G4" si="0">12*D3</f>
-        <v>120</v>
-      </c>
-      <c r="H3" s="1">
-        <f t="shared" ref="H3:H7" si="1">(B3-C3) *G3/3</f>
-        <v>420000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>5000000</v>
-      </c>
-      <c r="C4">
-        <v>6000000</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" si="1"/>
-        <v>-40000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>6000000</v>
-      </c>
-      <c r="C5">
-        <v>3000000</v>
-      </c>
-      <c r="D5">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <f>12*D5</f>
-        <v>180</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="1"/>
-        <v>180000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>20000000</v>
-      </c>
-      <c r="C6">
-        <v>5000000</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <f>12*D6</f>
-        <v>96</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="1"/>
-        <v>480000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>15000000</v>
-      </c>
-      <c r="C7">
-        <v>4000000</v>
-      </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <f>12*D7</f>
-        <v>108</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="1"/>
-        <v>396000000</v>
-      </c>
+      <c r="H4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
